--- a/team_specific_matrix/UC Irvine_A.xlsx
+++ b/team_specific_matrix/UC Irvine_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.134020618556701</v>
+        <v>0.1708185053380783</v>
       </c>
       <c r="C2">
-        <v>0.6443298969072165</v>
+        <v>0.6014234875444839</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02061855670103093</v>
+        <v>0.01779359430604982</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1134020618556701</v>
+        <v>0.1352313167259787</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08762886597938144</v>
+        <v>0.07473309608540925</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.005747126436781609</v>
       </c>
       <c r="C3">
-        <v>0.01550387596899225</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02325581395348837</v>
+        <v>0.02873563218390805</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7906976744186046</v>
+        <v>0.8045977011494253</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1705426356589147</v>
+        <v>0.1494252873563219</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1052631578947368</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7368421052631579</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1578947368421053</v>
+        <v>0.1509433962264151</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06179775280898876</v>
+        <v>0.0730593607305936</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01685393258426966</v>
+        <v>0.0228310502283105</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06179775280898876</v>
+        <v>0.0684931506849315</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2415730337078652</v>
+        <v>0.2328767123287671</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02247191011235955</v>
+        <v>0.0319634703196347</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2359550561797753</v>
+        <v>0.2328767123287671</v>
       </c>
       <c r="R6">
-        <v>0.05056179775280899</v>
+        <v>0.0410958904109589</v>
       </c>
       <c r="S6">
-        <v>0.3089887640449438</v>
+        <v>0.2968036529680365</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07352941176470588</v>
+        <v>0.09239130434782608</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02941176470588235</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05882352941176471</v>
+        <v>0.05434782608695652</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2058823529411765</v>
+        <v>0.1902173913043478</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2058823529411765</v>
+        <v>0.2010869565217391</v>
       </c>
       <c r="R7">
-        <v>0.07352941176470588</v>
+        <v>0.07065217391304347</v>
       </c>
       <c r="S7">
-        <v>0.3529411764705883</v>
+        <v>0.358695652173913</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09090909090909091</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0303030303030303</v>
+        <v>0.02764976958525346</v>
       </c>
       <c r="E8">
-        <v>0.00303030303030303</v>
+        <v>0.002304147465437788</v>
       </c>
       <c r="F8">
-        <v>0.06060606060606061</v>
+        <v>0.06221198156682028</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09393939393939393</v>
+        <v>0.0944700460829493</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03333333333333333</v>
+        <v>0.03456221198156682</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2121212121212121</v>
+        <v>0.2235023041474654</v>
       </c>
       <c r="R8">
-        <v>0.07272727272727272</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="S8">
-        <v>0.403030303030303</v>
+        <v>0.3870967741935484</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08799999999999999</v>
+        <v>0.1118421052631579</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.024</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.032</v>
+        <v>0.03947368421052631</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.12</v>
+        <v>0.125</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.04</v>
+        <v>0.03289473684210526</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.168</v>
+        <v>0.1776315789473684</v>
       </c>
       <c r="R9">
-        <v>0.048</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="S9">
-        <v>0.48</v>
+        <v>0.4342105263157895</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1035502958579882</v>
+        <v>0.1066260472201066</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01873767258382643</v>
+        <v>0.02208682406702209</v>
       </c>
       <c r="E10">
-        <v>0.001972386587771203</v>
+        <v>0.002284843869002285</v>
       </c>
       <c r="F10">
-        <v>0.08382642998027613</v>
+        <v>0.07844630616907845</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1153846153846154</v>
+        <v>0.1142421934501142</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01873767258382643</v>
+        <v>0.01751713632901752</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2485207100591716</v>
+        <v>0.246001523229246</v>
       </c>
       <c r="R10">
-        <v>0.06607495069033531</v>
+        <v>0.06626047220106626</v>
       </c>
       <c r="S10">
-        <v>0.3431952662721893</v>
+        <v>0.3465346534653465</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.09913793103448276</v>
+        <v>0.1084745762711864</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.103448275862069</v>
+        <v>0.09152542372881356</v>
       </c>
       <c r="K11">
-        <v>0.1853448275862069</v>
+        <v>0.1796610169491525</v>
       </c>
       <c r="L11">
-        <v>0.5862068965517241</v>
+        <v>0.6</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02586206896551724</v>
+        <v>0.02033898305084746</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7163120567375887</v>
+        <v>0.7377049180327869</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2269503546099291</v>
+        <v>0.2185792349726776</v>
       </c>
       <c r="K12">
-        <v>0.007092198581560284</v>
+        <v>0.00546448087431694</v>
       </c>
       <c r="L12">
-        <v>0.02836879432624113</v>
+        <v>0.02185792349726776</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02127659574468085</v>
+        <v>0.01639344262295082</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5666666666666667</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03333333333333333</v>
+        <v>0.02777777777777778</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02040816326530612</v>
+        <v>0.01984126984126984</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1836734693877551</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="I15">
-        <v>0.0663265306122449</v>
+        <v>0.05952380952380952</v>
       </c>
       <c r="J15">
-        <v>0.2959183673469388</v>
+        <v>0.3095238095238095</v>
       </c>
       <c r="K15">
-        <v>0.08163265306122448</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01020408163265306</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04081632653061224</v>
+        <v>0.03968253968253968</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3010204081632653</v>
+        <v>0.2936507936507937</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02666666666666667</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1733333333333333</v>
+        <v>0.1534883720930233</v>
       </c>
       <c r="I16">
-        <v>0.04666666666666667</v>
+        <v>0.05116279069767442</v>
       </c>
       <c r="J16">
-        <v>0.4333333333333333</v>
+        <v>0.4465116279069767</v>
       </c>
       <c r="K16">
-        <v>0.1133333333333333</v>
+        <v>0.1116279069767442</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01333333333333333</v>
+        <v>0.0186046511627907</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07333333333333333</v>
+        <v>0.06046511627906977</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.12</v>
+        <v>0.1348837209302326</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02179176755447942</v>
+        <v>0.0205607476635514</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1646489104116223</v>
+        <v>0.1775700934579439</v>
       </c>
       <c r="I17">
-        <v>0.07263922518159806</v>
+        <v>0.06355140186915888</v>
       </c>
       <c r="J17">
-        <v>0.4406779661016949</v>
+        <v>0.4485981308411215</v>
       </c>
       <c r="K17">
-        <v>0.1113801452784504</v>
+        <v>0.102803738317757</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02421307506053269</v>
+        <v>0.0205607476635514</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06053268765133172</v>
+        <v>0.06728971962616823</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1041162227602906</v>
+        <v>0.09906542056074766</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02564102564102564</v>
+        <v>0.02684563758389262</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1538461538461539</v>
+        <v>0.1812080536912752</v>
       </c>
       <c r="I18">
-        <v>0.09401709401709402</v>
+        <v>0.1073825503355705</v>
       </c>
       <c r="J18">
-        <v>0.4358974358974359</v>
+        <v>0.4228187919463087</v>
       </c>
       <c r="K18">
-        <v>0.1111111111111111</v>
+        <v>0.09395973154362416</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.008547008547008548</v>
+        <v>0.006711409395973154</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07692307692307693</v>
+        <v>0.08053691275167785</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09401709401709402</v>
+        <v>0.08053691275167785</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01518438177874186</v>
+        <v>0.01371036846615253</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1984815618221258</v>
+        <v>0.1996572407883462</v>
       </c>
       <c r="I19">
-        <v>0.07049891540130152</v>
+        <v>0.06598114824335904</v>
       </c>
       <c r="J19">
-        <v>0.3915401301518438</v>
+        <v>0.4001713796058269</v>
       </c>
       <c r="K19">
-        <v>0.1008676789587852</v>
+        <v>0.1071122536418166</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01626898047722343</v>
+        <v>0.01371036846615253</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.000856898029134533</v>
       </c>
       <c r="O19">
-        <v>0.09002169197396963</v>
+        <v>0.08483290488431877</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1171366594360087</v>
+        <v>0.1139674378748929</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/UC Irvine_A.xlsx
+++ b/team_specific_matrix/UC Irvine_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1708185053380783</v>
+        <v>0.1761006289308176</v>
       </c>
       <c r="C2">
-        <v>0.6014234875444839</v>
+        <v>0.5911949685534591</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01779359430604982</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1352313167259787</v>
+        <v>0.1415094339622641</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07473309608540925</v>
+        <v>0.07232704402515723</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005747126436781609</v>
+        <v>0.01025641025641026</v>
       </c>
       <c r="C3">
-        <v>0.01149425287356322</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02873563218390805</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8045977011494253</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1494252873563219</v>
+        <v>0.1435897435897436</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09433962264150944</v>
+        <v>0.08928571428571429</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7547169811320755</v>
+        <v>0.75</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1509433962264151</v>
+        <v>0.1607142857142857</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0730593607305936</v>
+        <v>0.07531380753138076</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0228310502283105</v>
+        <v>0.02092050209205021</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0684931506849315</v>
+        <v>0.07112970711297072</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2328767123287671</v>
+        <v>0.2426778242677824</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0319634703196347</v>
+        <v>0.02928870292887029</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2328767123287671</v>
+        <v>0.2217573221757322</v>
       </c>
       <c r="R6">
-        <v>0.0410958904109589</v>
+        <v>0.03765690376569038</v>
       </c>
       <c r="S6">
-        <v>0.2968036529680365</v>
+        <v>0.301255230125523</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09239130434782608</v>
+        <v>0.08866995073891626</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02173913043478261</v>
+        <v>0.01970443349753695</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05434782608695652</v>
+        <v>0.0541871921182266</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1902173913043478</v>
+        <v>0.187192118226601</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0108695652173913</v>
+        <v>0.01477832512315271</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2010869565217391</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="R7">
-        <v>0.07065217391304347</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="S7">
-        <v>0.358695652173913</v>
+        <v>0.3596059113300493</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09677419354838709</v>
+        <v>0.09381663113006397</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02764976958525346</v>
+        <v>0.02771855010660981</v>
       </c>
       <c r="E8">
-        <v>0.002304147465437788</v>
+        <v>0.002132196162046908</v>
       </c>
       <c r="F8">
-        <v>0.06221198156682028</v>
+        <v>0.05970149253731343</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0944700460829493</v>
+        <v>0.09594882729211088</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03456221198156682</v>
+        <v>0.03198294243070363</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2235023041474654</v>
+        <v>0.2281449893390192</v>
       </c>
       <c r="R8">
-        <v>0.07142857142857142</v>
+        <v>0.07889125799573561</v>
       </c>
       <c r="S8">
-        <v>0.3870967741935484</v>
+        <v>0.3816631130063966</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1118421052631579</v>
+        <v>0.10625</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02631578947368421</v>
+        <v>0.025</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.03947368421052631</v>
+        <v>0.05</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03289473684210526</v>
+        <v>0.03125</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1776315789473684</v>
+        <v>0.18125</v>
       </c>
       <c r="R9">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="S9">
-        <v>0.4342105263157895</v>
+        <v>0.43125</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1066260472201066</v>
+        <v>0.1144662921348315</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02208682406702209</v>
+        <v>0.02176966292134832</v>
       </c>
       <c r="E10">
-        <v>0.002284843869002285</v>
+        <v>0.002106741573033708</v>
       </c>
       <c r="F10">
-        <v>0.07844630616907845</v>
+        <v>0.07654494382022473</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1142421934501142</v>
+        <v>0.113061797752809</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01751713632901752</v>
+        <v>0.01825842696629213</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.246001523229246</v>
+        <v>0.2443820224719101</v>
       </c>
       <c r="R10">
-        <v>0.06626047220106626</v>
+        <v>0.06460674157303371</v>
       </c>
       <c r="S10">
-        <v>0.3465346534653465</v>
+        <v>0.3448033707865168</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1084745762711864</v>
+        <v>0.1073619631901841</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09152542372881356</v>
+        <v>0.09202453987730061</v>
       </c>
       <c r="K11">
-        <v>0.1796610169491525</v>
+        <v>0.1779141104294479</v>
       </c>
       <c r="L11">
-        <v>0.6</v>
+        <v>0.6012269938650306</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02033898305084746</v>
+        <v>0.02147239263803681</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7377049180327869</v>
+        <v>0.7277227722772277</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2185792349726776</v>
+        <v>0.2326732673267327</v>
       </c>
       <c r="K12">
-        <v>0.00546448087431694</v>
+        <v>0.004950495049504951</v>
       </c>
       <c r="L12">
-        <v>0.02185792349726776</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01639344262295082</v>
+        <v>0.01485148514851485</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="G13">
-        <v>0.5833333333333334</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3888888888888889</v>
+        <v>0.3255813953488372</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02777777777777778</v>
+        <v>0.04651162790697674</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01984126984126984</v>
+        <v>0.01879699248120301</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1785714285714286</v>
+        <v>0.1729323308270677</v>
       </c>
       <c r="I15">
-        <v>0.05952380952380952</v>
+        <v>0.06015037593984962</v>
       </c>
       <c r="J15">
-        <v>0.3095238095238095</v>
+        <v>0.3120300751879699</v>
       </c>
       <c r="K15">
-        <v>0.08333333333333333</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01587301587301587</v>
+        <v>0.01879699248120301</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03968253968253968</v>
+        <v>0.04135338345864661</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2936507936507937</v>
+        <v>0.2969924812030075</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02325581395348837</v>
+        <v>0.02521008403361345</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1534883720930233</v>
+        <v>0.1512605042016807</v>
       </c>
       <c r="I16">
-        <v>0.05116279069767442</v>
+        <v>0.05042016806722689</v>
       </c>
       <c r="J16">
-        <v>0.4465116279069767</v>
+        <v>0.4579831932773109</v>
       </c>
       <c r="K16">
-        <v>0.1116279069767442</v>
+        <v>0.1050420168067227</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0186046511627907</v>
+        <v>0.01680672268907563</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06046511627906977</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1348837209302326</v>
+        <v>0.134453781512605</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0205607476635514</v>
+        <v>0.02413793103448276</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1775700934579439</v>
+        <v>0.1844827586206897</v>
       </c>
       <c r="I17">
-        <v>0.06355140186915888</v>
+        <v>0.0603448275862069</v>
       </c>
       <c r="J17">
-        <v>0.4485981308411215</v>
+        <v>0.4448275862068966</v>
       </c>
       <c r="K17">
-        <v>0.102803738317757</v>
+        <v>0.09655172413793103</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0205607476635514</v>
+        <v>0.02413793103448276</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06728971962616823</v>
+        <v>0.06379310344827586</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09906542056074766</v>
+        <v>0.1017241379310345</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02684563758389262</v>
+        <v>0.02484472049689441</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1812080536912752</v>
+        <v>0.1801242236024845</v>
       </c>
       <c r="I18">
-        <v>0.1073825503355705</v>
+        <v>0.09937888198757763</v>
       </c>
       <c r="J18">
-        <v>0.4228187919463087</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K18">
-        <v>0.09395973154362416</v>
+        <v>0.09316770186335403</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.006711409395973154</v>
+        <v>0.0124223602484472</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08053691275167785</v>
+        <v>0.07453416149068323</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08053691275167785</v>
+        <v>0.08695652173913043</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01371036846615253</v>
+        <v>0.01348136399682792</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1996572407883462</v>
+        <v>0.1982553528945281</v>
       </c>
       <c r="I19">
-        <v>0.06598114824335904</v>
+        <v>0.06582077716098335</v>
       </c>
       <c r="J19">
-        <v>0.4001713796058269</v>
+        <v>0.3965107057890563</v>
       </c>
       <c r="K19">
-        <v>0.1071122536418166</v>
+        <v>0.1165741475019826</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01371036846615253</v>
+        <v>0.01348136399682792</v>
       </c>
       <c r="N19">
-        <v>0.000856898029134533</v>
+        <v>0.0007930214115781126</v>
       </c>
       <c r="O19">
-        <v>0.08483290488431877</v>
+        <v>0.08247422680412371</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1139674378748929</v>
+        <v>0.112609040444092</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/UC Irvine_A.xlsx
+++ b/team_specific_matrix/UC Irvine_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1761006289308176</v>
+        <v>0.1761194029850746</v>
       </c>
       <c r="C2">
-        <v>0.5911949685534591</v>
+        <v>0.591044776119403</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01886792452830189</v>
+        <v>0.01791044776119403</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1415094339622641</v>
+        <v>0.1432835820895522</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07232704402515723</v>
+        <v>0.07164179104477612</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01025641025641026</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="C3">
-        <v>0.01538461538461539</v>
+        <v>0.01456310679611651</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03589743589743589</v>
+        <v>0.03398058252427184</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7948717948717948</v>
+        <v>0.7961165048543689</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1435897435897436</v>
+        <v>0.145631067961165</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08928571428571429</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.75</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1607142857142857</v>
+        <v>0.1587301587301587</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07531380753138076</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02092050209205021</v>
+        <v>0.01984126984126984</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07112970711297072</v>
+        <v>0.06746031746031746</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2426778242677824</v>
+        <v>0.25</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02928870292887029</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2217573221757322</v>
+        <v>0.2182539682539683</v>
       </c>
       <c r="R6">
-        <v>0.03765690376569038</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="S6">
-        <v>0.301255230125523</v>
+        <v>0.3095238095238095</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08866995073891626</v>
+        <v>0.08256880733944955</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01970443349753695</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0541871921182266</v>
+        <v>0.05045871559633028</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.187192118226601</v>
+        <v>0.1834862385321101</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01477832512315271</v>
+        <v>0.01376146788990826</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2068965517241379</v>
+        <v>0.2201834862385321</v>
       </c>
       <c r="R7">
-        <v>0.06896551724137931</v>
+        <v>0.06880733944954129</v>
       </c>
       <c r="S7">
-        <v>0.3596059113300493</v>
+        <v>0.3623853211009174</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09381663113006397</v>
+        <v>0.096579476861167</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02771855010660981</v>
+        <v>0.0261569416498994</v>
       </c>
       <c r="E8">
-        <v>0.002132196162046908</v>
+        <v>0.004024144869215292</v>
       </c>
       <c r="F8">
-        <v>0.05970149253731343</v>
+        <v>0.05633802816901409</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09594882729211088</v>
+        <v>0.096579476861167</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03198294243070363</v>
+        <v>0.03018108651911469</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2281449893390192</v>
+        <v>0.227364185110664</v>
       </c>
       <c r="R8">
-        <v>0.07889125799573561</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="S8">
-        <v>0.3816631130063966</v>
+        <v>0.3782696177062374</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.10625</v>
+        <v>0.09941520467836257</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.025</v>
+        <v>0.02339181286549707</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05</v>
+        <v>0.04678362573099415</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.125</v>
+        <v>0.1286549707602339</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03125</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.18125</v>
+        <v>0.1812865497076023</v>
       </c>
       <c r="R9">
-        <v>0.05</v>
+        <v>0.05847953216374269</v>
       </c>
       <c r="S9">
-        <v>0.43125</v>
+        <v>0.4269005847953216</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1144662921348315</v>
+        <v>0.1138157894736842</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02176966292134832</v>
+        <v>0.02434210526315789</v>
       </c>
       <c r="E10">
-        <v>0.002106741573033708</v>
+        <v>0.001973684210526316</v>
       </c>
       <c r="F10">
-        <v>0.07654494382022473</v>
+        <v>0.07631578947368421</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.113061797752809</v>
+        <v>0.1131578947368421</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01825842696629213</v>
+        <v>0.01776315789473684</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2443820224719101</v>
+        <v>0.2467105263157895</v>
       </c>
       <c r="R10">
-        <v>0.06460674157303371</v>
+        <v>0.0625</v>
       </c>
       <c r="S10">
-        <v>0.3448033707865168</v>
+        <v>0.343421052631579</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1073619631901841</v>
+        <v>0.1073446327683616</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09202453987730061</v>
+        <v>0.0903954802259887</v>
       </c>
       <c r="K11">
-        <v>0.1779141104294479</v>
+        <v>0.1779661016949153</v>
       </c>
       <c r="L11">
-        <v>0.6012269938650306</v>
+        <v>0.5988700564971752</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02147239263803681</v>
+        <v>0.02542372881355932</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7277227722772277</v>
+        <v>0.7247706422018348</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2326732673267327</v>
+        <v>0.2293577981651376</v>
       </c>
       <c r="K12">
-        <v>0.004950495049504951</v>
+        <v>0.004587155963302753</v>
       </c>
       <c r="L12">
-        <v>0.0198019801980198</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01485148514851485</v>
+        <v>0.02293577981651376</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.02325581395348837</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="G13">
-        <v>0.6046511627906976</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3255813953488372</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04651162790697674</v>
+        <v>0.06382978723404255</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01879699248120301</v>
+        <v>0.01773049645390071</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1729323308270677</v>
+        <v>0.1702127659574468</v>
       </c>
       <c r="I15">
-        <v>0.06015037593984962</v>
+        <v>0.06028368794326241</v>
       </c>
       <c r="J15">
-        <v>0.3120300751879699</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="K15">
-        <v>0.07894736842105263</v>
+        <v>0.07446808510638298</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01879699248120301</v>
+        <v>0.01773049645390071</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04135338345864661</v>
+        <v>0.04964539007092199</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2969924812030075</v>
+        <v>0.2907801418439716</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02521008403361345</v>
+        <v>0.02362204724409449</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1512605042016807</v>
+        <v>0.1496062992125984</v>
       </c>
       <c r="I16">
-        <v>0.05042016806722689</v>
+        <v>0.05511811023622047</v>
       </c>
       <c r="J16">
-        <v>0.4579831932773109</v>
+        <v>0.4488188976377953</v>
       </c>
       <c r="K16">
-        <v>0.1050420168067227</v>
+        <v>0.1102362204724409</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01680672268907563</v>
+        <v>0.01574803149606299</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05882352941176471</v>
+        <v>0.06299212598425197</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.134453781512605</v>
+        <v>0.1338582677165354</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02413793103448276</v>
+        <v>0.02407704654895666</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1844827586206897</v>
+        <v>0.1797752808988764</v>
       </c>
       <c r="I17">
-        <v>0.0603448275862069</v>
+        <v>0.0593900481540931</v>
       </c>
       <c r="J17">
-        <v>0.4448275862068966</v>
+        <v>0.4414125200642054</v>
       </c>
       <c r="K17">
-        <v>0.09655172413793103</v>
+        <v>0.09951845906902086</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02413793103448276</v>
+        <v>0.02407704654895666</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06379310344827586</v>
+        <v>0.06260032102728733</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1017241379310345</v>
+        <v>0.1091492776886035</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02484472049689441</v>
+        <v>0.02906976744186046</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1801242236024845</v>
+        <v>0.1686046511627907</v>
       </c>
       <c r="I18">
-        <v>0.09937888198757763</v>
+        <v>0.1046511627906977</v>
       </c>
       <c r="J18">
-        <v>0.4285714285714285</v>
+        <v>0.4244186046511628</v>
       </c>
       <c r="K18">
-        <v>0.09316770186335403</v>
+        <v>0.09883720930232558</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0124223602484472</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07453416149068323</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08695652173913043</v>
+        <v>0.09302325581395349</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01348136399682792</v>
+        <v>0.01407407407407407</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1982553528945281</v>
+        <v>0.1992592592592592</v>
       </c>
       <c r="I19">
-        <v>0.06582077716098335</v>
+        <v>0.06444444444444444</v>
       </c>
       <c r="J19">
-        <v>0.3965107057890563</v>
+        <v>0.3962962962962963</v>
       </c>
       <c r="K19">
-        <v>0.1165741475019826</v>
+        <v>0.117037037037037</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01348136399682792</v>
+        <v>0.01481481481481482</v>
       </c>
       <c r="N19">
-        <v>0.0007930214115781126</v>
+        <v>0.0007407407407407407</v>
       </c>
       <c r="O19">
-        <v>0.08247422680412371</v>
+        <v>0.08074074074074074</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.112609040444092</v>
+        <v>0.1125925925925926</v>
       </c>
     </row>
   </sheetData>
